--- a/$MP.xlsx
+++ b/$MP.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonmccall/Desktop/$MODELZ/$MP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A89E774-AC8D-554F-A76B-DDEDC15E12AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D14F01-CA34-354F-8196-AA204285DFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="24500" windowHeight="19560" xr2:uid="{464812D6-FCF3-0544-84DC-44BCA1A82FE7}"/>
+    <workbookView xWindow="3480" yWindow="500" windowWidth="24500" windowHeight="19560" xr2:uid="{464812D6-FCF3-0544-84DC-44BCA1A82FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -167,9 +167,6 @@
     <t>Rev y/y</t>
   </si>
   <si>
-    <t>Gross Margin y/y</t>
-  </si>
-  <si>
     <t>Tax Rate</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>Diluted Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Margin </t>
   </si>
 </sst>
 </file>
@@ -484,56 +484,6 @@
         <a:xfrm>
           <a:off x="18262600" y="101600"/>
           <a:ext cx="0" cy="4508500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7C596F-9651-814A-B96A-3D40428146C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13474700" y="4737100"/>
-          <a:ext cx="0" cy="5905500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -859,7 +809,7 @@
   <dimension ref="B1:AT61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,51 +826,51 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="24">
-        <v>45025</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -960,6 +910,9 @@
       <c r="N5" s="7">
         <v>93245000</v>
       </c>
+      <c r="O5" s="7">
+        <v>89000000</v>
+      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -1053,7 +1006,7 @@
       </c>
       <c r="O7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89000000</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
@@ -1255,7 +1208,7 @@
       </c>
       <c r="O17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89000000</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="1"/>
@@ -1521,72 +1474,72 @@
         <v>527510000</v>
       </c>
       <c r="G29" s="7">
-        <v>462000000</v>
+        <v>420000000</v>
       </c>
       <c r="H29" s="7">
-        <v>749000000</v>
+        <v>650000000</v>
       </c>
       <c r="I29" s="7">
-        <v>837000000</v>
+        <v>795000000</v>
       </c>
       <c r="J29" s="7">
         <v>1300000000</v>
       </c>
       <c r="K29" s="7">
-        <f>J29*K50+J29</f>
-        <v>1391000000</v>
+        <f t="shared" ref="K29:X29" si="2">J29*K50+J29</f>
+        <v>1313000000</v>
       </c>
       <c r="L29" s="7">
-        <f>K29*L50+K29</f>
-        <v>1488370000</v>
+        <f t="shared" si="2"/>
+        <v>1326130000</v>
       </c>
       <c r="M29" s="7">
-        <f>L29*M50+L29</f>
-        <v>1592555900</v>
+        <f t="shared" si="2"/>
+        <v>1339391300</v>
       </c>
       <c r="N29" s="7">
-        <f>M29*N50+M29</f>
-        <v>1704034813</v>
+        <f t="shared" si="2"/>
+        <v>1352785213</v>
       </c>
       <c r="O29" s="7">
-        <f>N29*O50+N29</f>
-        <v>1789236553.6500001</v>
+        <f t="shared" si="2"/>
+        <v>1366313065.1300001</v>
       </c>
       <c r="P29" s="7">
-        <f>O29*P50+O29</f>
-        <v>1878698381.3325</v>
+        <f t="shared" si="2"/>
+        <v>1379976195.7813001</v>
       </c>
       <c r="Q29" s="7">
-        <f>P29*Q50+P29</f>
-        <v>1972633300.3991251</v>
+        <f t="shared" si="2"/>
+        <v>1393775957.7391131</v>
       </c>
       <c r="R29" s="7">
-        <f>Q29*R50+Q29</f>
-        <v>2071264965.4190814</v>
+        <f t="shared" si="2"/>
+        <v>1407713717.3165042</v>
       </c>
       <c r="S29" s="7">
-        <f>R29*S50+R29</f>
-        <v>2174828213.6900353</v>
+        <f t="shared" si="2"/>
+        <v>1421790854.4896693</v>
       </c>
       <c r="T29" s="7">
-        <f>S29*T50+S29</f>
-        <v>2283569624.374537</v>
+        <f t="shared" si="2"/>
+        <v>1436008763.0345659</v>
       </c>
       <c r="U29" s="7">
-        <f>T29*U50+T29</f>
-        <v>2397748105.5932636</v>
+        <f t="shared" si="2"/>
+        <v>1450368850.6649115</v>
       </c>
       <c r="V29" s="7">
-        <f>U29*V50+U29</f>
-        <v>2517635510.8729267</v>
+        <f t="shared" si="2"/>
+        <v>1464872539.1715605</v>
       </c>
       <c r="W29" s="7">
-        <f>V29*W50+V29</f>
-        <v>2643517286.416573</v>
+        <f t="shared" si="2"/>
+        <v>1479521264.5632761</v>
       </c>
       <c r="X29" s="7">
-        <f>W29*X50+W29</f>
-        <v>2775693150.7374015</v>
+        <f t="shared" si="2"/>
+        <v>1494316477.2089088</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
@@ -1607,75 +1560,75 @@
       </c>
       <c r="G30" s="7">
         <f>G29-G31</f>
-        <v>92400000</v>
+        <v>84000000</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" ref="H30:X30" si="2">H29-H31</f>
-        <v>149800000</v>
+        <f t="shared" ref="H30:X30" si="3">H29-H31</f>
+        <v>130000000</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="2"/>
-        <v>167400000</v>
+        <f t="shared" si="3"/>
+        <v>159000000</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260000000</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="2"/>
-        <v>278200000</v>
+        <f t="shared" si="3"/>
+        <v>262600000</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" si="2"/>
-        <v>297674000</v>
+        <f t="shared" si="3"/>
+        <v>265226000</v>
       </c>
       <c r="M30" s="7">
-        <f t="shared" si="2"/>
-        <v>318511180</v>
+        <f t="shared" si="3"/>
+        <v>267878260</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="2"/>
-        <v>340806962.5999999</v>
+        <f t="shared" si="3"/>
+        <v>270557042.5999999</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="2"/>
-        <v>357847310.73000002</v>
+        <f t="shared" si="3"/>
+        <v>273262613.02600002</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="2"/>
-        <v>375739676.2665</v>
+        <f t="shared" si="3"/>
+        <v>275995239.15626001</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="2"/>
-        <v>394526660.07982492</v>
+        <f t="shared" si="3"/>
+        <v>278755191.54782248</v>
       </c>
       <c r="R30" s="7">
-        <f t="shared" si="2"/>
-        <v>414252993.08381629</v>
+        <f t="shared" si="3"/>
+        <v>281542743.4633007</v>
       </c>
       <c r="S30" s="7">
-        <f t="shared" si="2"/>
-        <v>434965642.73800707</v>
+        <f t="shared" si="3"/>
+        <v>284358170.89793372</v>
       </c>
       <c r="T30" s="7">
-        <f t="shared" si="2"/>
-        <v>456713924.87490726</v>
+        <f t="shared" si="3"/>
+        <v>287201752.60691309</v>
       </c>
       <c r="U30" s="7">
-        <f t="shared" si="2"/>
-        <v>479549621.11865258</v>
+        <f t="shared" si="3"/>
+        <v>290073770.13298225</v>
       </c>
       <c r="V30" s="7">
-        <f t="shared" si="2"/>
-        <v>503527102.17458534</v>
+        <f t="shared" si="3"/>
+        <v>292974507.83431196</v>
       </c>
       <c r="W30" s="7">
-        <f t="shared" si="2"/>
-        <v>528703457.28331447</v>
+        <f t="shared" si="3"/>
+        <v>295904252.91265512</v>
       </c>
       <c r="X30" s="7">
-        <f t="shared" si="2"/>
-        <v>555138630.14748001</v>
+        <f t="shared" si="3"/>
+        <v>298863295.44178176</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
@@ -1687,88 +1640,88 @@
         <v>12150000</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" ref="D31:F31" si="3">D29-D30</f>
+        <f t="shared" ref="D31:F31" si="4">D29-D30</f>
         <v>70512000</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>255699000</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>435292000</v>
       </c>
       <c r="G31" s="7">
         <f>G29*G51</f>
-        <v>369600000</v>
+        <v>336000000</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" ref="H31:X31" si="4">H29*H51</f>
-        <v>599200000</v>
+        <f t="shared" ref="H31:X31" si="5">H29*H51</f>
+        <v>520000000</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="4"/>
-        <v>669600000</v>
+        <f t="shared" si="5"/>
+        <v>636000000</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1040000000</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="4"/>
-        <v>1112800000</v>
+        <f t="shared" si="5"/>
+        <v>1050400000</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="4"/>
-        <v>1190696000</v>
+        <f t="shared" si="5"/>
+        <v>1060904000</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" si="4"/>
-        <v>1274044720</v>
+        <f t="shared" si="5"/>
+        <v>1071513040</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="4"/>
-        <v>1363227850.4000001</v>
+        <f t="shared" si="5"/>
+        <v>1082228170.4000001</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" si="4"/>
-        <v>1431389242.9200001</v>
+        <f t="shared" si="5"/>
+        <v>1093050452.1040001</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="4"/>
-        <v>1502958705.066</v>
+        <f t="shared" si="5"/>
+        <v>1103980956.6250401</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="4"/>
-        <v>1578106640.3193002</v>
+        <f t="shared" si="5"/>
+        <v>1115020766.1912906</v>
       </c>
       <c r="R31" s="7">
-        <f t="shared" si="4"/>
-        <v>1657011972.3352652</v>
+        <f t="shared" si="5"/>
+        <v>1126170973.8532035</v>
       </c>
       <c r="S31" s="7">
-        <f t="shared" si="4"/>
-        <v>1739862570.9520283</v>
+        <f t="shared" si="5"/>
+        <v>1137432683.5917356</v>
       </c>
       <c r="T31" s="7">
-        <f t="shared" si="4"/>
-        <v>1826855699.4996297</v>
+        <f t="shared" si="5"/>
+        <v>1148807010.4276528</v>
       </c>
       <c r="U31" s="7">
-        <f t="shared" si="4"/>
-        <v>1918198484.474611</v>
+        <f t="shared" si="5"/>
+        <v>1160295080.5319293</v>
       </c>
       <c r="V31" s="7">
-        <f t="shared" si="4"/>
-        <v>2014108408.6983414</v>
+        <f t="shared" si="5"/>
+        <v>1171898031.3372486</v>
       </c>
       <c r="W31" s="7">
-        <f t="shared" si="4"/>
-        <v>2114813829.1332586</v>
+        <f t="shared" si="5"/>
+        <v>1183617011.6506209</v>
       </c>
       <c r="X31" s="7">
-        <f t="shared" si="4"/>
-        <v>2220554520.5899215</v>
+        <f t="shared" si="5"/>
+        <v>1195453181.767127</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
@@ -1805,59 +1758,59 @@
       </c>
       <c r="K32" s="7">
         <f>J32*J55+J32</f>
-        <v>168270151.68000001</v>
+        <v>165124915.19999999</v>
       </c>
       <c r="L32" s="7">
         <f>K32*J55+K32</f>
-        <v>180049062.2976</v>
+        <v>173381160.95999998</v>
       </c>
       <c r="M32" s="7">
         <f>L32*J55+L32</f>
-        <v>192652496.65843201</v>
+        <v>182050219.00799999</v>
       </c>
       <c r="N32" s="7">
         <f>M32*J55+M32</f>
-        <v>206138171.42452225</v>
+        <v>191152729.95839998</v>
       </c>
       <c r="O32" s="7">
         <f>N32*J55+N32</f>
-        <v>220567843.4242388</v>
+        <v>200710366.45631999</v>
       </c>
       <c r="P32" s="7">
         <f>O32*J55+O32</f>
-        <v>236007592.46393552</v>
+        <v>210745884.779136</v>
       </c>
       <c r="Q32" s="7">
         <f>P32*J55+P32</f>
-        <v>252528123.93641102</v>
+        <v>221283179.01809281</v>
       </c>
       <c r="R32" s="7">
         <f>Q32*J55+Q32</f>
-        <v>270205092.61195982</v>
+        <v>232347337.96899745</v>
       </c>
       <c r="S32" s="7">
         <f>R32*J55+R32</f>
-        <v>289119449.09479702</v>
+        <v>243964704.86744732</v>
       </c>
       <c r="T32" s="7">
         <f>S32*J55+S32</f>
-        <v>309357810.53143281</v>
+        <v>256162940.1108197</v>
       </c>
       <c r="U32" s="7">
         <f>T32*J55+T32</f>
-        <v>331012857.26863313</v>
+        <v>268971087.11636066</v>
       </c>
       <c r="V32" s="7">
         <f>U32*J55+U32</f>
-        <v>354183757.27743745</v>
+        <v>282419641.4721787</v>
       </c>
       <c r="W32" s="7">
         <f>V32*J55+V32</f>
-        <v>378976620.28685808</v>
+        <v>296540623.54578763</v>
       </c>
       <c r="X32" s="7">
         <f>W32*J55+W32</f>
-        <v>405504983.70693815</v>
+        <v>311367654.723077</v>
       </c>
     </row>
     <row r="33" spans="2:46" x14ac:dyDescent="0.2">
@@ -2306,7 +2259,7 @@
         <v>81031000</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" ref="D40:X40" si="5">D32+D33+D34+D35+D36+D37+D38+D39+D30</f>
+        <f t="shared" ref="D40:X40" si="6">D32+D33+D34+D35+D36+D37+D38+D39+D30</f>
         <v>169013000</v>
       </c>
       <c r="E40" s="8">
@@ -2314,80 +2267,80 @@
         <v>166607000</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200099000</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="5"/>
-        <v>217908000</v>
+        <f t="shared" si="6"/>
+        <v>209508000</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="5"/>
-        <v>293509600</v>
+        <f t="shared" si="6"/>
+        <v>273709600</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="5"/>
-        <v>332951520</v>
+        <f t="shared" si="6"/>
+        <v>324551520</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>451761824</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="5"/>
-        <v>480970151.68000001</v>
+        <f t="shared" si="6"/>
+        <v>462224915.19999999</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="5"/>
-        <v>512223062.29760003</v>
+        <f t="shared" si="6"/>
+        <v>473107160.95999998</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="5"/>
-        <v>545663676.65843201</v>
+        <f t="shared" si="6"/>
+        <v>484428479.00800002</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="5"/>
-        <v>581445134.02452219</v>
+        <f t="shared" si="6"/>
+        <v>496209772.55839992</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="5"/>
-        <v>612915154.15423882</v>
+        <f t="shared" si="6"/>
+        <v>508472979.48232001</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" si="5"/>
-        <v>646247268.73043549</v>
+        <f t="shared" si="6"/>
+        <v>521241123.93539602</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" si="5"/>
-        <v>681554784.01623595</v>
+        <f t="shared" si="6"/>
+        <v>534538370.56591529</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" si="5"/>
-        <v>718958085.6957761</v>
+        <f t="shared" si="6"/>
+        <v>548390081.43229818</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="5"/>
-        <v>758585091.83280408</v>
+        <f t="shared" si="6"/>
+        <v>562822875.7653811</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="5"/>
-        <v>800571735.40634012</v>
+        <f t="shared" si="6"/>
+        <v>577864692.71773279</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="5"/>
-        <v>845062478.38728571</v>
+        <f t="shared" si="6"/>
+        <v>593544857.24934292</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="5"/>
-        <v>892210859.45202279</v>
+        <f t="shared" si="6"/>
+        <v>609894149.30649066</v>
       </c>
       <c r="W40" s="8">
-        <f t="shared" si="5"/>
-        <v>942180077.57017255</v>
+        <f t="shared" si="6"/>
+        <v>626944876.45844269</v>
       </c>
       <c r="X40" s="8">
-        <f t="shared" si="5"/>
-        <v>995143613.85441816</v>
+        <f t="shared" si="6"/>
+        <v>644730950.16485882</v>
       </c>
     </row>
     <row r="41" spans="2:46" x14ac:dyDescent="0.2">
@@ -2399,88 +2352,88 @@
         <v>-7620000</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" ref="D41:X41" si="6">D29-D40</f>
+        <f t="shared" ref="D41:X41" si="7">D29-D40</f>
         <v>-34703000</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>165345000</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>327411000</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="6"/>
-        <v>244092000</v>
+        <f t="shared" si="7"/>
+        <v>210492000</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="6"/>
-        <v>455490400</v>
+        <f t="shared" si="7"/>
+        <v>376290400</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="6"/>
-        <v>504048480</v>
+        <f t="shared" si="7"/>
+        <v>470448480</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>848238176</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="6"/>
-        <v>910029848.31999993</v>
+        <f t="shared" si="7"/>
+        <v>850775084.79999995</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="6"/>
-        <v>976146937.70239997</v>
+        <f t="shared" si="7"/>
+        <v>853022839.03999996</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="6"/>
-        <v>1046892223.341568</v>
+        <f t="shared" si="7"/>
+        <v>854962820.99199998</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="6"/>
-        <v>1122589678.9754777</v>
+        <f t="shared" si="7"/>
+        <v>856575440.44160008</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="6"/>
-        <v>1176321399.4957614</v>
+        <f t="shared" si="7"/>
+        <v>857840085.64768004</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="6"/>
-        <v>1232451112.6020646</v>
+        <f t="shared" si="7"/>
+        <v>858735071.84590411</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="6"/>
-        <v>1291078516.3828893</v>
+        <f t="shared" si="7"/>
+        <v>859237587.17319775</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="6"/>
-        <v>1352306879.7233052</v>
+        <f t="shared" si="7"/>
+        <v>859323635.88420606</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="6"/>
-        <v>1416243121.8572311</v>
+        <f t="shared" si="7"/>
+        <v>858967978.72428823</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="6"/>
-        <v>1482997888.9681969</v>
+        <f t="shared" si="7"/>
+        <v>858144070.31683314</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="6"/>
-        <v>1552685627.2059779</v>
+        <f t="shared" si="7"/>
+        <v>856823993.41556859</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="6"/>
-        <v>1625424651.4209039</v>
+        <f t="shared" si="7"/>
+        <v>854978389.86506987</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="6"/>
-        <v>1701337208.8464005</v>
+        <f t="shared" si="7"/>
+        <v>852576388.10483336</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" si="6"/>
-        <v>1780549536.8829832</v>
+        <f t="shared" si="7"/>
+        <v>849585527.04404998</v>
       </c>
     </row>
     <row r="42" spans="2:46" x14ac:dyDescent="0.2">
@@ -2634,88 +2587,88 @@
         <v>-6754000</v>
       </c>
       <c r="D44" s="8">
-        <f t="shared" ref="D44:X44" si="7">D41+D42+D43</f>
+        <f t="shared" ref="D44:X44" si="8">D41+D42+D43</f>
         <v>-39461000</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>160195000</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>341152000</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="7"/>
-        <v>248092000</v>
+        <f t="shared" si="8"/>
+        <v>214492000</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="7"/>
-        <v>459490400</v>
+        <f t="shared" si="8"/>
+        <v>380290400</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="7"/>
-        <v>508048480</v>
+        <f t="shared" si="8"/>
+        <v>474448480</v>
       </c>
       <c r="J44" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>852238176</v>
       </c>
       <c r="K44" s="8">
-        <f t="shared" si="7"/>
-        <v>914029848.31999993</v>
+        <f t="shared" si="8"/>
+        <v>854775084.79999995</v>
       </c>
       <c r="L44" s="8">
-        <f t="shared" si="7"/>
-        <v>980146937.70239997</v>
+        <f t="shared" si="8"/>
+        <v>857022839.03999996</v>
       </c>
       <c r="M44" s="8">
-        <f t="shared" si="7"/>
-        <v>1050892223.341568</v>
+        <f t="shared" si="8"/>
+        <v>858962820.99199998</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" si="7"/>
-        <v>1126589678.9754777</v>
+        <f t="shared" si="8"/>
+        <v>860575440.44160008</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="7"/>
-        <v>1180321399.4957614</v>
+        <f t="shared" si="8"/>
+        <v>861840085.64768004</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" si="7"/>
-        <v>1236451112.6020646</v>
+        <f t="shared" si="8"/>
+        <v>862735071.84590411</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" si="7"/>
-        <v>1295078516.3828893</v>
+        <f t="shared" si="8"/>
+        <v>863237587.17319775</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" si="7"/>
-        <v>1356306879.7233052</v>
+        <f t="shared" si="8"/>
+        <v>863323635.88420606</v>
       </c>
       <c r="S44" s="8">
-        <f t="shared" si="7"/>
-        <v>1420243121.8572311</v>
+        <f t="shared" si="8"/>
+        <v>862967978.72428823</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" si="7"/>
-        <v>1486997888.9681969</v>
+        <f t="shared" si="8"/>
+        <v>862144070.31683314</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" si="7"/>
-        <v>1556685627.2059779</v>
+        <f t="shared" si="8"/>
+        <v>860823993.41556859</v>
       </c>
       <c r="V44" s="8">
-        <f t="shared" si="7"/>
-        <v>1629424651.4209039</v>
+        <f t="shared" si="8"/>
+        <v>858978389.86506987</v>
       </c>
       <c r="W44" s="8">
-        <f t="shared" si="7"/>
-        <v>1705337208.8464005</v>
+        <f t="shared" si="8"/>
+        <v>856576388.10483336</v>
       </c>
       <c r="X44" s="8">
-        <f t="shared" si="7"/>
-        <v>1784549536.8829832</v>
+        <f t="shared" si="8"/>
+        <v>853585527.04404998</v>
       </c>
     </row>
     <row r="45" spans="2:46" x14ac:dyDescent="0.2">
@@ -2736,75 +2689,75 @@
       </c>
       <c r="G45" s="7">
         <f>-(G44*G52)</f>
-        <v>-49618400</v>
+        <v>-42898400</v>
       </c>
       <c r="H45" s="7">
         <f>-(H44*H52)</f>
-        <v>-91898080</v>
+        <v>-76058080</v>
       </c>
       <c r="I45" s="7">
         <f>-(I44*I52)</f>
-        <v>-101609696</v>
+        <v>-94889696</v>
       </c>
       <c r="J45" s="7">
-        <f t="shared" ref="H45:X45" si="8">-(J44*J52)</f>
+        <f t="shared" ref="J45:X45" si="9">-(J44*J52)</f>
         <v>-170447635.20000002</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="8"/>
-        <v>-182805969.664</v>
+        <f t="shared" si="9"/>
+        <v>-170955016.96000001</v>
       </c>
       <c r="L45" s="7">
-        <f t="shared" si="8"/>
-        <v>-196029387.54048002</v>
+        <f t="shared" si="9"/>
+        <v>-171404567.808</v>
       </c>
       <c r="M45" s="7">
-        <f t="shared" si="8"/>
-        <v>-210178444.66831362</v>
+        <f t="shared" si="9"/>
+        <v>-171792564.19840002</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="8"/>
-        <v>-225317935.79509556</v>
+        <f t="shared" si="9"/>
+        <v>-172115088.08832002</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" si="8"/>
-        <v>-236064279.89915228</v>
+        <f t="shared" si="9"/>
+        <v>-172368017.12953603</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" si="8"/>
-        <v>-247290222.52041292</v>
+        <f t="shared" si="9"/>
+        <v>-172547014.36918083</v>
       </c>
       <c r="Q45" s="7">
-        <f t="shared" si="8"/>
-        <v>-259015703.27657786</v>
+        <f t="shared" si="9"/>
+        <v>-172647517.43463957</v>
       </c>
       <c r="R45" s="7">
-        <f t="shared" si="8"/>
-        <v>-271261375.94466108</v>
+        <f t="shared" si="9"/>
+        <v>-172664727.17684123</v>
       </c>
       <c r="S45" s="7">
-        <f t="shared" si="8"/>
-        <v>-284048624.37144625</v>
+        <f t="shared" si="9"/>
+        <v>-172593595.74485767</v>
       </c>
       <c r="T45" s="7">
-        <f t="shared" si="8"/>
-        <v>-297399577.79363936</v>
+        <f t="shared" si="9"/>
+        <v>-172428814.06336665</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" si="8"/>
-        <v>-311337125.44119561</v>
+        <f t="shared" si="9"/>
+        <v>-172164798.68311372</v>
       </c>
       <c r="V45" s="7">
-        <f t="shared" si="8"/>
-        <v>-325884930.28418082</v>
+        <f t="shared" si="9"/>
+        <v>-171795677.973014</v>
       </c>
       <c r="W45" s="7">
-        <f t="shared" si="8"/>
-        <v>-341067441.76928014</v>
+        <f t="shared" si="9"/>
+        <v>-171315277.62096667</v>
       </c>
       <c r="X45" s="7">
-        <f t="shared" si="8"/>
-        <v>-356909907.37659669</v>
+        <f t="shared" si="9"/>
+        <v>-170717105.40881002</v>
       </c>
     </row>
     <row r="46" spans="2:46" x14ac:dyDescent="0.2">
@@ -2816,176 +2769,176 @@
         <v>-6755000</v>
       </c>
       <c r="D46" s="13">
-        <f t="shared" ref="D46:X46" si="9">D44+D45</f>
+        <f t="shared" ref="D46:X46" si="10">D44+D45</f>
         <v>-21825000</v>
       </c>
       <c r="E46" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>135037000</v>
       </c>
       <c r="F46" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>289004000</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" si="9"/>
-        <v>198473600</v>
+        <f t="shared" si="10"/>
+        <v>171593600</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="9"/>
-        <v>367592320</v>
+        <f t="shared" si="10"/>
+        <v>304232320</v>
       </c>
       <c r="I46" s="13">
-        <f t="shared" si="9"/>
-        <v>406438784</v>
+        <f t="shared" si="10"/>
+        <v>379558784</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>681790540.79999995</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" si="9"/>
-        <v>731223878.6559999</v>
+        <f t="shared" si="10"/>
+        <v>683820067.83999991</v>
       </c>
       <c r="L46" s="13">
-        <f t="shared" si="9"/>
-        <v>784117550.16191995</v>
+        <f t="shared" si="10"/>
+        <v>685618271.23199999</v>
       </c>
       <c r="M46" s="13">
-        <f t="shared" si="9"/>
-        <v>840713778.67325437</v>
+        <f t="shared" si="10"/>
+        <v>687170256.79359996</v>
       </c>
       <c r="N46" s="13">
-        <f t="shared" si="9"/>
-        <v>901271743.18038213</v>
+        <f t="shared" si="10"/>
+        <v>688460352.35328007</v>
       </c>
       <c r="O46" s="13">
-        <f t="shared" si="9"/>
-        <v>944257119.59660912</v>
+        <f t="shared" si="10"/>
+        <v>689472068.51814401</v>
       </c>
       <c r="P46" s="13">
-        <f t="shared" si="9"/>
-        <v>989160890.08165169</v>
+        <f t="shared" si="10"/>
+        <v>690188057.47672331</v>
       </c>
       <c r="Q46" s="13">
-        <f t="shared" si="9"/>
-        <v>1036062813.1063114</v>
+        <f t="shared" si="10"/>
+        <v>690590069.73855817</v>
       </c>
       <c r="R46" s="13">
-        <f t="shared" si="9"/>
-        <v>1085045503.7786441</v>
+        <f t="shared" si="10"/>
+        <v>690658908.7073648</v>
       </c>
       <c r="S46" s="13">
-        <f t="shared" si="9"/>
-        <v>1136194497.485785</v>
+        <f t="shared" si="10"/>
+        <v>690374382.97943056</v>
       </c>
       <c r="T46" s="13">
-        <f t="shared" si="9"/>
-        <v>1189598311.1745574</v>
+        <f t="shared" si="10"/>
+        <v>689715256.25346649</v>
       </c>
       <c r="U46" s="13">
-        <f t="shared" si="9"/>
-        <v>1245348501.7647824</v>
+        <f t="shared" si="10"/>
+        <v>688659194.7324549</v>
       </c>
       <c r="V46" s="13">
-        <f t="shared" si="9"/>
-        <v>1303539721.136723</v>
+        <f t="shared" si="10"/>
+        <v>687182711.89205587</v>
       </c>
       <c r="W46" s="13">
-        <f t="shared" si="9"/>
-        <v>1364269767.0771203</v>
+        <f t="shared" si="10"/>
+        <v>685261110.48386669</v>
       </c>
       <c r="X46" s="13">
-        <f t="shared" si="9"/>
-        <v>1427639629.5063865</v>
+        <f t="shared" si="10"/>
+        <v>682868421.63523996</v>
       </c>
       <c r="Y46" s="8">
         <f>X46*I59+X46</f>
-        <v>1413363233.2113225</v>
+        <v>676039737.41888762</v>
       </c>
       <c r="Z46" s="8">
         <f>Y46*I59+Y46</f>
-        <v>1399229600.8792093</v>
+        <v>669279340.04469872</v>
       </c>
       <c r="AA46" s="8">
         <f>Z46*I59+Z46</f>
-        <v>1385237304.8704171</v>
+        <v>662586546.6442517</v>
       </c>
       <c r="AB46" s="8">
         <f>AA46*I59+AA46</f>
-        <v>1371384931.821713</v>
+        <v>655960681.17780924</v>
       </c>
       <c r="AC46" s="8">
         <f>AB46*I59+AB46</f>
-        <v>1357671082.5034959</v>
+        <v>649401074.36603117</v>
       </c>
       <c r="AD46" s="8">
         <f>AC46*I59+AC46</f>
-        <v>1344094371.6784611</v>
+        <v>642907063.62237084</v>
       </c>
       <c r="AE46" s="8">
         <f>AD46*OI9+AD46</f>
-        <v>1344094371.6784611</v>
+        <v>642907063.62237084</v>
       </c>
       <c r="AF46" s="8">
         <f>AE46*I59+AE46</f>
-        <v>1330653427.9616764</v>
+        <v>636477992.98614717</v>
       </c>
       <c r="AG46" s="8">
         <f>AF46*I59+AF46</f>
-        <v>1317346893.6820595</v>
+        <v>630113213.05628574</v>
       </c>
       <c r="AH46" s="8">
         <f>AG46*I59+AG46</f>
-        <v>1304173424.745239</v>
+        <v>623812080.92572284</v>
       </c>
       <c r="AI46" s="8">
         <f>AH46*I59+AH46</f>
-        <v>1291131690.4977865</v>
+        <v>617573960.11646557</v>
       </c>
       <c r="AJ46" s="8">
         <f>AI46*I59+AI46</f>
-        <v>1278220373.5928087</v>
+        <v>611398220.51530087</v>
       </c>
       <c r="AK46" s="8">
         <f>AJ46*UI9+AJ46</f>
-        <v>1278220373.5928087</v>
+        <v>611398220.51530087</v>
       </c>
       <c r="AL46" s="8">
         <f>AK46*I59+AK46</f>
-        <v>1265438169.8568807</v>
+        <v>605284238.31014788</v>
       </c>
       <c r="AM46" s="8">
         <f>AL46*I59+AL46</f>
-        <v>1252783788.1583118</v>
+        <v>599231395.92704642</v>
       </c>
       <c r="AN46" s="8">
         <f>AM46*I59+AM46</f>
-        <v>1240255950.2767286</v>
+        <v>593239081.96777594</v>
       </c>
       <c r="AO46" s="8">
         <f>AN46*I59+AN46</f>
-        <v>1227853390.7739613</v>
+        <v>587306691.14809823</v>
       </c>
       <c r="AP46" s="8">
         <f>AO46*I59+AO46</f>
-        <v>1215574856.8662217</v>
+        <v>581433624.23661721</v>
       </c>
       <c r="AQ46" s="8">
         <f>AP46*I59+AP46</f>
-        <v>1203419108.2975595</v>
+        <v>575619287.99425101</v>
       </c>
       <c r="AR46" s="8">
         <f>AQ46*I59+AQ46</f>
-        <v>1191384917.2145839</v>
+        <v>569863095.11430848</v>
       </c>
       <c r="AS46" s="8">
         <f>AR46*I59+AR46</f>
-        <v>1179471068.042438</v>
+        <v>564164464.16316545</v>
       </c>
       <c r="AT46" s="8">
         <f>AS46*I59+AS46</f>
-        <v>1167676357.3620136</v>
+        <v>558522819.52153385</v>
       </c>
     </row>
     <row r="47" spans="2:46" x14ac:dyDescent="0.2">
@@ -2997,76 +2950,76 @@
         <v>1.627111742942198</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" ref="G47:X47" si="10">G46/G48</f>
-        <v>1.1150202247191012</v>
+        <f t="shared" ref="G47:X47" si="11">G46/G48</f>
+        <v>0.96400898876404495</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="10"/>
-        <v>2.0651253932584268</v>
+        <f t="shared" si="11"/>
+        <v>1.7091703370786517</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="10"/>
-        <v>2.28336395505618</v>
+        <f t="shared" si="11"/>
+        <v>2.1323527191011236</v>
       </c>
       <c r="J47" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.8302839370786512</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="10"/>
-        <v>4.1079993182921344</v>
+        <f t="shared" si="11"/>
+        <v>3.8416857743820221</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" si="10"/>
-        <v>4.4051547761905612</v>
+        <f t="shared" si="11"/>
+        <v>3.8517880406292133</v>
       </c>
       <c r="M47" s="7">
-        <f t="shared" si="10"/>
-        <v>4.7231111161418786</v>
+        <f t="shared" si="11"/>
+        <v>3.8605070606382021</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="10"/>
-        <v>5.0633243998897877</v>
+        <f t="shared" si="11"/>
+        <v>3.8677547885015735</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" si="10"/>
-        <v>5.3048152786326357</v>
+        <f t="shared" si="11"/>
+        <v>3.8734385871805843</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="10"/>
-        <v>5.5570836521441107</v>
+        <f t="shared" si="11"/>
+        <v>3.8774609970602434</v>
       </c>
       <c r="Q47" s="7">
-        <f t="shared" si="10"/>
-        <v>5.820577601720851</v>
+        <f t="shared" si="11"/>
+        <v>3.8797194929132481</v>
       </c>
       <c r="R47" s="7">
-        <f t="shared" si="10"/>
-        <v>6.0957612571833941</v>
+        <f t="shared" si="11"/>
+        <v>3.8801062286930605</v>
       </c>
       <c r="S47" s="7">
-        <f t="shared" si="10"/>
-        <v>6.3831151544145222</v>
+        <f t="shared" si="11"/>
+        <v>3.8785077695473626</v>
       </c>
       <c r="T47" s="7">
-        <f t="shared" si="10"/>
-        <v>6.683136579632345</v>
+        <f t="shared" si="11"/>
+        <v>3.8748048104127331</v>
       </c>
       <c r="U47" s="7">
-        <f t="shared" si="10"/>
-        <v>6.9963398975549573</v>
+        <f t="shared" si="11"/>
+        <v>3.8688718805194093</v>
       </c>
       <c r="V47" s="7">
-        <f t="shared" si="10"/>
-        <v>7.3232568603186685</v>
+        <f t="shared" si="11"/>
+        <v>3.8605770331014373</v>
       </c>
       <c r="W47" s="7">
-        <f t="shared" si="10"/>
-        <v>7.6644368936916871</v>
+        <f t="shared" si="11"/>
+        <v>3.8497815195722849</v>
       </c>
       <c r="X47" s="7">
-        <f t="shared" si="10"/>
-        <v>8.0204473567774528</v>
+        <f t="shared" si="11"/>
+        <v>3.8363394473889887</v>
       </c>
     </row>
     <row r="48" spans="2:46" x14ac:dyDescent="0.2">
@@ -3143,90 +3096,90 @@
         <v>0.82956232717167722</v>
       </c>
       <c r="E50" s="16">
-        <f t="shared" ref="E50:J50" si="11">E29/D29-1</f>
+        <f t="shared" ref="E50:J50" si="12">E29/D29-1</f>
         <v>1.4715359988087262</v>
       </c>
       <c r="F50" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.58911529377741356</v>
       </c>
       <c r="G50" s="16">
-        <f t="shared" si="11"/>
-        <v>-0.12418721919963605</v>
+        <f t="shared" si="12"/>
+        <v>-0.20380656290875998</v>
       </c>
       <c r="H50" s="16">
-        <f t="shared" si="11"/>
-        <v>0.6212121212121211</v>
+        <f t="shared" si="12"/>
+        <v>0.54761904761904767</v>
       </c>
       <c r="I50" s="16">
-        <f t="shared" si="11"/>
-        <v>0.11748998664886523</v>
+        <f t="shared" si="12"/>
+        <v>0.22307692307692317</v>
       </c>
       <c r="J50" s="16">
-        <f t="shared" si="11"/>
-        <v>0.55316606929510148</v>
+        <f t="shared" si="12"/>
+        <v>0.6352201257861636</v>
       </c>
       <c r="K50" s="16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L50" s="16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="M50" s="16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="N50" s="16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O50" s="16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="P50" s="16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="Q50" s="16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="R50" s="16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="S50" s="16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="T50" s="16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="U50" s="16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="V50" s="16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="W50" s="16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="X50" s="16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C51" s="16">
         <f>C31/C29</f>
         <v>0.16550653171867977</v>
       </c>
       <c r="D51" s="16">
-        <f t="shared" ref="D51:F51" si="12">D31/D29</f>
+        <f t="shared" ref="D51:F51" si="13">D31/D29</f>
         <v>0.52499441590350682</v>
       </c>
       <c r="E51" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.77028907793897916</v>
       </c>
       <c r="F51" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.82518246099600012</v>
       </c>
       <c r="G51" s="16">
@@ -3286,7 +3239,7 @@
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52" s="16">
         <f>(25158000/E46)</f>
@@ -3353,16 +3306,16 @@
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" s="18">
         <v>0.1</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55" s="14">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>1</v>
@@ -3371,16 +3324,16 @@
         <v>0.2</v>
       </c>
       <c r="J55" s="20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="21">
         <f>NPV(C55,G46:AT46)</f>
-        <v>8343165433.9063721</v>
+        <v>5622130173.7684193</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>4</v>
@@ -3389,30 +3342,30 @@
         <v>178000000</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" s="22">
         <f>C56/F56</f>
-        <v>46.871715920822318</v>
+        <v>31.585000976227075</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F57" s="14">
         <f>F55*F56</f>
-        <v>4806000000</v>
+        <v>3560000000</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E58" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F58" s="14">
         <v>1182345000</v>
@@ -3420,20 +3373,20 @@
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="22">
         <f>C56/C61</f>
-        <v>43.117134025355931</v>
+        <v>29.054936298544803</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="14">
         <v>250000000</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I59" s="20">
         <v>-0.01</v>
@@ -3441,13 +3394,13 @@
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E60" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F60" s="12"/>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="23">
         <v>193500000</v>
